--- a/UART-Calculadora.xlsx
+++ b/UART-Calculadora.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive\Documentos\GitHub\Laboratorio6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\OneDrive\Documentos\GitHub\Proyecto-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E919055-10E3-44B1-911D-283215736E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D372058-155F-4590-88AC-E88DF601BDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C740FA8C-7272-402C-BCBE-F45E58C36BE0}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{C740FA8C-7272-402C-BCBE-F45E58C36BE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9600</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -643,7 +643,7 @@
       </c>
       <c r="B8" s="3">
         <f>ROUND(((B3/(16*B4))-1), 0)</f>
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -655,11 +655,11 @@
       </c>
       <c r="B9" s="3">
         <f>B3/(16*(B8+1))</f>
-        <v>9615.3846153846152</v>
+        <v>58823.529411764706</v>
       </c>
       <c r="C9" s="5">
         <f>(B4-B9)/B4</f>
-        <v>-1.602564102564088E-3</v>
+        <v>-2.1241830065359485E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,7 +675,7 @@
       </c>
       <c r="B12" s="3">
         <f>ROUND((($B$3/(8*$B$4))-1), 0)</f>
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -687,11 +687,11 @@
       </c>
       <c r="B13" s="3">
         <f>$B$3/(8*(B12+1))</f>
-        <v>9615.3846153846152</v>
+        <v>57142.857142857145</v>
       </c>
       <c r="C13" s="5">
         <f>(B13-$B$4)/$B$4</f>
-        <v>1.602564102564088E-3</v>
+        <v>-7.9365079365078996E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -707,7 +707,7 @@
       </c>
       <c r="B16" s="3">
         <f>ROUND((($B$3/(2*$B$4))-1), 0)</f>
-        <v>832</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -719,11 +719,11 @@
       </c>
       <c r="B17" s="3">
         <f>$B$3/(2*(B16+1))</f>
-        <v>9603.8415366146455</v>
+        <v>57553.956834532371</v>
       </c>
       <c r="C17" s="5">
         <f>(B17-$B$4)/$B$4</f>
-        <v>4.0016006402557498E-4</v>
+        <v>-7.993605115907738E-4</v>
       </c>
     </row>
   </sheetData>
